--- a/Output/Техника по уходу за бельем ВСТР.xlsx
+++ b/Output/Техника по уходу за бельем ВСТР.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Артикул</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Neff</t>
+  </si>
+  <si>
+    <t>стиральные машины</t>
   </si>
   <si>
     <t>LST147</t>
@@ -679,7 +682,9 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s"/>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
@@ -700,16 +705,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -718,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
@@ -729,13 +734,13 @@
         <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
         <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
         <v>35</v>
@@ -759,7 +764,7 @@
         <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W4" t="s">
         <v>32</v>
@@ -770,16 +775,16 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -817,7 +822,7 @@
         <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -829,7 +834,7 @@
         <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W5" t="s">
         <v>32</v>
